--- a/Result_Translator/V1/File/20230524/Af_results_Header_v2.xlsx
+++ b/Result_Translator/V1/File/20230524/Af_results_Header_v2.xlsx
@@ -794,7 +794,7 @@
               <a:latin typeface="Calibri (Body)"/>
               <a:cs typeface="Calibri (Body)"/>
             </a:rPr>
-            <a:t>Exercise ABMMC: Day 4</a:t>
+            <a:t>Exercise ABMMC: Day 5</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/Result_Translator/V1/File/20230524/Af_results_Header_v2.xlsx
+++ b/Result_Translator/V1/File/20230524/Af_results_Header_v2.xlsx
@@ -794,7 +794,7 @@
               <a:latin typeface="Calibri (Body)"/>
               <a:cs typeface="Calibri (Body)"/>
             </a:rPr>
-            <a:t>Exercise ABMMC: Day 5</a:t>
+            <a:t>asd: aas</a:t>
           </a:r>
         </a:p>
         <a:p>
